--- a/Documentação/Backlog/backlog - projeto individual.xlsx
+++ b/Documentação/Backlog/backlog - projeto individual.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e58d7da8e46fce06/Documents/Projeto Individual/Projeto-Individual/Documentação/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e58d7da8e46fce06/Documents/Projeto Individual/Projeto-Individual/Documentação/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{93AA1584-AF05-4273-826F-6AB6D10B8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04CC0ECC-74D8-4E2E-AF8A-7C2DFE2BF22A}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="8_{93AA1584-AF05-4273-826F-6AB6D10B8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{900293DE-B2EC-4382-8A85-15CF5D5D9F7F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4CC2DE7-E563-4D6F-9DC0-A08D4F8D9142}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t xml:space="preserve">Representação visual da regra de negócio do projeto </t>
   </si>
   <si>
-    <t>Criação do Banco de Dados</t>
-  </si>
-  <si>
     <t>Armazenamento dos dados do projeto</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>Permite que o usuário recupere a senha em caso de esquecer ou perder</t>
+  </si>
+  <si>
+    <t>Script do Banco de Dados</t>
   </si>
 </sst>
 </file>
@@ -649,7 +649,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="6">
         <v>3</v>
@@ -718,7 +718,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -732,7 +732,7 @@
         <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
@@ -741,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -755,7 +755,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -764,7 +764,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -778,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -787,7 +787,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -801,7 +801,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6">
         <v>2</v>
@@ -810,7 +810,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -824,7 +824,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -833,7 +833,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -847,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
@@ -856,7 +856,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -870,7 +870,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="6">
         <v>2</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -893,7 +893,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -902,7 +902,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -916,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
@@ -925,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -933,13 +933,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="6">
         <v>3</v>
@@ -948,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -959,10 +959,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
@@ -971,7 +971,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -982,10 +982,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
@@ -994,7 +994,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1005,10 +1005,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6">
         <v>3</v>
@@ -1017,7 +1017,7 @@
         <v>5</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1028,10 +1028,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6">
         <v>3</v>
@@ -1040,7 +1040,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -1051,10 +1051,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1063,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -1074,10 +1074,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
@@ -1086,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1097,10 +1097,10 @@
         <v>22</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1109,7 +1109,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -1118,13 +1118,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1133,18 +1133,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="6">
         <v>3</v>
@@ -1153,18 +1154,18 @@
         <v>8</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -1173,7 +1174,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Backlog/backlog - projeto individual.xlsx
+++ b/Documentação/Backlog/backlog - projeto individual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e58d7da8e46fce06/Documents/Projeto Individual/Projeto-Individual/Documentação/Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="8_{93AA1584-AF05-4273-826F-6AB6D10B8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{900293DE-B2EC-4382-8A85-15CF5D5D9F7F}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{93AA1584-AF05-4273-826F-6AB6D10B8822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{883135FB-382C-4BD9-9446-74350599561F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B4CC2DE7-E563-4D6F-9DC0-A08D4F8D9142}"/>
   </bookViews>
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -307,6 +307,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +652,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -902,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -924,7 +927,7 @@
       <c r="E12" s="6">
         <v>8</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="9" t="s">
         <v>44</v>
       </c>
       <c r="G12" s="3"/>
